--- a/medicine/Mort/Death_Note_(film,_2006)/Death_Note_(film,_2006).xlsx
+++ b/medicine/Mort/Death_Note_(film,_2006)/Death_Note_(film,_2006).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Death Note (デスノート, Desu Nōto?) est un film japonais de Shūsuke Kaneko sorti au Japon le 17 juin 2006 et le 9 janvier 2008 en France.
 Il s'agit de la première adaptation cinématographique du manga Death Note créé par Tsugumi Ōba et Takeshi Obata. Il est directement suivi de Death Note 2: The Last Name.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Light Yagami est un brillant lycéen qui trouve un jour un carnet ayant le pouvoir de faire mourir tout être humain dont le nom y est inscrit, mais cela doit être fait en respectant certaines règles précises. Grâce à ce Death Note, il espère rendre le monde meilleur, afin de créer une société dépourvue de criminels, de vices… Pour cela il entame sa quête en éliminant les plus grands criminels du monde. 
 Le Death Note permet de tuer d'une crise cardiaque la personne dont on inscrit le nom, à condition de connaître son visage, ainsi, rapidement la police comprend qu'un individu tue les criminels. Mais comment le trouver ? Comment trouver celui que l'on nomme Kira et qui semble avoir les pouvoirs d'un Dieu ?
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Shūsuke Kaneko
 Direction : Matsue Yoshiki
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tatsuya Fujiwara (VF : Olivier Korol) : Light Yagami
 Ken'ichi Matsuyama (V. F. : Gérard Malabat) : L / Ryûzaki
@@ -625,7 +643,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2007 : Mainichi Film Concours
 2007 : Festival du film de Yokohama : Best New Talent Ken'ichi Matsuyama
@@ -660,7 +680,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a quelques différences avec le manga original, notamment l'apparition d'un personnage inédit : Shiori.
 De plus, dans l'anime, Light et L se rencontrent lors des examens pour l'université, contrairement au film où ils se rencontrent lorsque la petite amie de Light se fait tuer.
